--- a/subsidiary_doc/Abbr-RSC current journals_NT.xlsx
+++ b/subsidiary_doc/Abbr-RSC current journals_NT.xlsx
@@ -270,9 +270,6 @@
     <t xml:space="preserve">Photochemical &amp; Photobiological Sciences </t>
   </si>
   <si>
-    <t xml:space="preserve">Physical Chemistry Chemical Physics </t>
-  </si>
-  <si>
     <t xml:space="preserve">Polymer Chemistry </t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>2047-4849</t>
+  </si>
+  <si>
+    <t>Physical Chemistry Chemical Physics</t>
   </si>
 </sst>
 </file>
@@ -389,10 +389,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,23 +709,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,11 +735,11 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,8 +749,8 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>103</v>
+      <c r="D4" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,8 +760,8 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
+      <c r="D5" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -815,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,10 +1034,10 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
         <v>97</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,21 +1058,21 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>39</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>40</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>41</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>42</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>43</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>44</v>
